--- a/fuentes/contenidos/grado06/guion12/Escaleta_CN_06_12_CO.xlsx
+++ b/fuentes/contenidos/grado06/guion12/Escaleta_CN_06_12_CO.xlsx
@@ -5,18 +5,21 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\psf\Home\Documents\Aula Planeta Colombia\Repositorios\CienciasNaturales\fuentes\contenidos\grado06\guion12\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mpgarcia\Desktop\CienciasNaturales\fuentes\contenidos\grado06\guion12\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="15" yWindow="271" windowWidth="10743" windowHeight="11399"/>
+    <workbookView xWindow="15" yWindow="270" windowWidth="10740" windowHeight="11400"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="DATOS" sheetId="2" state="hidden" r:id="rId2"/>
     <sheet name="VER" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$U$29</definedName>
+  </definedNames>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -950,15 +953,6 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -991,6 +985,15 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1273,141 +1276,141 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3:H29"/>
+    <sheetView tabSelected="1" topLeftCell="G13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.86328125" style="21" customWidth="1"/>
-    <col min="2" max="2" width="13.1328125" style="21" customWidth="1"/>
-    <col min="3" max="3" width="15.73046875" style="21" customWidth="1"/>
-    <col min="4" max="4" width="17.46484375" style="21" customWidth="1"/>
-    <col min="5" max="5" width="19.265625" style="21" customWidth="1"/>
-    <col min="6" max="6" width="22.59765625" style="21" customWidth="1"/>
-    <col min="7" max="7" width="49.1328125" style="21" customWidth="1"/>
-    <col min="8" max="9" width="3.53125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="36.86328125" style="21" customWidth="1"/>
-    <col min="11" max="11" width="12.9296875" style="48" customWidth="1"/>
-    <col min="12" max="12" width="11.1328125" style="48" customWidth="1"/>
-    <col min="13" max="13" width="7.6640625" style="48" customWidth="1"/>
-    <col min="14" max="14" width="7.6640625" style="21" customWidth="1"/>
-    <col min="15" max="15" width="21.46484375" style="21" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="18" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" style="18" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" style="18" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" style="18" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" style="18" customWidth="1"/>
+    <col min="6" max="6" width="22.5703125" style="18" customWidth="1"/>
+    <col min="7" max="7" width="49.140625" style="18" customWidth="1"/>
+    <col min="8" max="9" width="3.5703125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="36.85546875" style="18" customWidth="1"/>
+    <col min="11" max="11" width="17.42578125" style="45" customWidth="1"/>
+    <col min="12" max="12" width="18" style="45" customWidth="1"/>
+    <col min="13" max="13" width="7.7109375" style="45" customWidth="1"/>
+    <col min="14" max="14" width="7.7109375" style="18" customWidth="1"/>
+    <col min="15" max="15" width="21.42578125" style="18" customWidth="1"/>
     <col min="16" max="16" width="13" style="2" customWidth="1"/>
-    <col min="17" max="17" width="6.796875" style="21" customWidth="1"/>
-    <col min="18" max="18" width="4.53125" style="21" customWidth="1"/>
-    <col min="19" max="19" width="12.3984375" style="21" customWidth="1"/>
-    <col min="20" max="20" width="40.1328125" style="21" customWidth="1"/>
-    <col min="21" max="21" width="12.6640625" style="21" customWidth="1"/>
-    <col min="22" max="16384" width="10.6640625" style="21"/>
+    <col min="17" max="17" width="6.85546875" style="18" customWidth="1"/>
+    <col min="18" max="18" width="4.5703125" style="18" customWidth="1"/>
+    <col min="19" max="19" width="12.42578125" style="18" customWidth="1"/>
+    <col min="20" max="20" width="40.140625" style="18" customWidth="1"/>
+    <col min="21" max="21" width="12.7109375" style="18" customWidth="1"/>
+    <col min="22" max="16384" width="10.7109375" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="14.7" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="H1" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="I1" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="J1" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="K1" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="L1" s="18" t="s">
+      <c r="L1" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="20" t="s">
+      <c r="M1" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="20"/>
-      <c r="O1" s="18" t="s">
+      <c r="N1" s="48"/>
+      <c r="O1" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="18" t="s">
+      <c r="P1" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="18" t="s">
+      <c r="Q1" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="18" t="s">
+      <c r="R1" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="18" t="s">
+      <c r="S1" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="18" t="s">
+      <c r="T1" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="18" t="s">
+      <c r="U1" s="46" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="23" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="22" t="s">
+    <row r="2" spans="1:21" s="20" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="47"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="N2" s="22" t="s">
+      <c r="N2" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="19"/>
-      <c r="S2" s="19"/>
-      <c r="T2" s="19"/>
-      <c r="U2" s="19"/>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A3" s="24" t="s">
+      <c r="O2" s="47"/>
+      <c r="P2" s="47"/>
+      <c r="Q2" s="47"/>
+      <c r="R2" s="47"/>
+      <c r="S2" s="47"/>
+      <c r="T2" s="47"/>
+      <c r="U2" s="47"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="22" t="s">
         <v>167</v>
       </c>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="27" t="s">
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="24" t="s">
         <v>108</v>
       </c>
       <c r="H3" s="7">
@@ -1416,18 +1419,18 @@
       <c r="I3" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="J3" s="27" t="s">
+      <c r="J3" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="K3" s="28" t="s">
+      <c r="K3" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="L3" s="28" t="s">
+      <c r="L3" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="M3" s="28"/>
-      <c r="N3" s="28"/>
-      <c r="O3" s="28" t="s">
+      <c r="M3" s="25"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="25" t="s">
         <v>196</v>
       </c>
       <c r="P3" s="10" t="s">
@@ -1449,22 +1452,22 @@
         <v>166</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="34" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="29" t="s">
+    <row r="4" spans="1:21" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="27" t="s">
         <v>107</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="22" t="s">
         <v>167</v>
       </c>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="32" t="s">
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="29" t="s">
         <v>111</v>
       </c>
       <c r="H4" s="8">
@@ -1473,20 +1476,20 @@
       <c r="I4" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="J4" s="32" t="s">
+      <c r="J4" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="K4" s="33" t="s">
+      <c r="K4" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="L4" s="33" t="s">
+      <c r="L4" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="M4" s="33"/>
-      <c r="N4" s="33" t="s">
+      <c r="M4" s="30"/>
+      <c r="N4" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="O4" s="33" t="s">
+      <c r="O4" s="30" t="s">
         <v>197</v>
       </c>
       <c r="P4" s="13" t="s">
@@ -1508,24 +1511,24 @@
         <v>98</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="35" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="24" t="s">
+    <row r="5" spans="1:21" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="D5" s="22" t="s">
         <v>167</v>
       </c>
-      <c r="E5" s="31" t="s">
+      <c r="E5" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="F5" s="31"/>
-      <c r="G5" s="32" t="s">
+      <c r="F5" s="28"/>
+      <c r="G5" s="29" t="s">
         <v>168</v>
       </c>
       <c r="H5" s="7">
@@ -1534,18 +1537,18 @@
       <c r="I5" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="J5" s="32" t="s">
+      <c r="J5" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="K5" s="33" t="s">
+      <c r="K5" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="L5" s="33" t="s">
+      <c r="L5" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="M5" s="28"/>
-      <c r="N5" s="28"/>
-      <c r="O5" s="33" t="s">
+      <c r="M5" s="25"/>
+      <c r="N5" s="25"/>
+      <c r="O5" s="30" t="s">
         <v>198</v>
       </c>
       <c r="P5" s="10" t="s">
@@ -1567,26 +1570,26 @@
         <v>169</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A6" s="24" t="s">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="D6" s="25" t="s">
+      <c r="D6" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="E6" s="26" t="s">
+      <c r="E6" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="F6" s="26" t="s">
+      <c r="F6" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="G6" s="27" t="s">
+      <c r="G6" s="24" t="s">
         <v>200</v>
       </c>
       <c r="H6" s="8">
@@ -1595,18 +1598,18 @@
       <c r="I6" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="J6" s="27" t="s">
+      <c r="J6" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="K6" s="28" t="s">
+      <c r="K6" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="L6" s="28" t="s">
+      <c r="L6" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="M6" s="28"/>
-      <c r="N6" s="28"/>
-      <c r="O6" s="36" t="s">
+      <c r="M6" s="25"/>
+      <c r="N6" s="25"/>
+      <c r="O6" s="33" t="s">
         <v>196</v>
       </c>
       <c r="P6" s="10" t="s">
@@ -1628,26 +1631,26 @@
         <v>171</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A7" s="24" t="s">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="D7" s="25" t="s">
+      <c r="D7" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="E7" s="31" t="s">
+      <c r="E7" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="F7" s="37" t="s">
+      <c r="F7" s="34" t="s">
         <v>118</v>
       </c>
-      <c r="G7" s="32" t="s">
+      <c r="G7" s="29" t="s">
         <v>117</v>
       </c>
       <c r="H7" s="7">
@@ -1656,18 +1659,18 @@
       <c r="I7" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="J7" s="32" t="s">
+      <c r="J7" s="29" t="s">
         <v>119</v>
       </c>
-      <c r="K7" s="38" t="s">
+      <c r="K7" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="L7" s="38" t="s">
+      <c r="L7" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="M7" s="36"/>
-      <c r="N7" s="36"/>
-      <c r="O7" s="38" t="s">
+      <c r="M7" s="33"/>
+      <c r="N7" s="33"/>
+      <c r="O7" s="35" t="s">
         <v>196</v>
       </c>
       <c r="P7" s="15" t="s">
@@ -1689,24 +1692,24 @@
         <v>171</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A8" s="39" t="s">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="B8" s="40" t="s">
+      <c r="B8" s="37" t="s">
         <v>106</v>
       </c>
-      <c r="C8" s="40" t="s">
+      <c r="C8" s="37" t="s">
         <v>107</v>
       </c>
-      <c r="D8" s="40" t="s">
+      <c r="D8" s="37" t="s">
         <v>113</v>
       </c>
-      <c r="E8" s="41" t="s">
+      <c r="E8" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="F8" s="41"/>
-      <c r="G8" s="42" t="s">
+      <c r="F8" s="38"/>
+      <c r="G8" s="39" t="s">
         <v>120</v>
       </c>
       <c r="H8" s="8">
@@ -1715,18 +1718,18 @@
       <c r="I8" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="J8" s="42" t="s">
+      <c r="J8" s="39" t="s">
         <v>121</v>
       </c>
-      <c r="K8" s="43" t="s">
+      <c r="K8" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="L8" s="43" t="s">
+      <c r="L8" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="M8" s="44"/>
-      <c r="N8" s="44"/>
-      <c r="O8" s="43" t="s">
+      <c r="M8" s="41"/>
+      <c r="N8" s="41"/>
+      <c r="O8" s="40" t="s">
         <v>196</v>
       </c>
       <c r="P8" s="16" t="s">
@@ -1748,24 +1751,24 @@
         <v>169</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="34" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="29" t="s">
+    <row r="9" spans="1:21" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="27" t="s">
         <v>107</v>
       </c>
-      <c r="D9" s="30" t="s">
+      <c r="D9" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="E9" s="31" t="s">
+      <c r="E9" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="F9" s="31"/>
-      <c r="G9" s="32" t="s">
+      <c r="F9" s="28"/>
+      <c r="G9" s="29" t="s">
         <v>188</v>
       </c>
       <c r="H9" s="7">
@@ -1774,18 +1777,18 @@
       <c r="I9" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="J9" s="32" t="s">
+      <c r="J9" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="K9" s="38" t="s">
+      <c r="K9" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="L9" s="38" t="s">
+      <c r="L9" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="M9" s="38"/>
-      <c r="N9" s="38"/>
-      <c r="O9" s="38" t="s">
+      <c r="M9" s="35"/>
+      <c r="N9" s="35"/>
+      <c r="O9" s="35" t="s">
         <v>199</v>
       </c>
       <c r="P9" s="17" t="s">
@@ -1807,24 +1810,24 @@
         <v>171</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="34" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="29" t="s">
+    <row r="10" spans="1:21" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="27" t="s">
         <v>107</v>
       </c>
-      <c r="D10" s="30" t="s">
+      <c r="D10" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="E10" s="31" t="s">
+      <c r="E10" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="F10" s="31"/>
-      <c r="G10" s="32" t="s">
+      <c r="F10" s="28"/>
+      <c r="G10" s="29" t="s">
         <v>187</v>
       </c>
       <c r="H10" s="8">
@@ -1833,18 +1836,18 @@
       <c r="I10" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="J10" s="32" t="s">
+      <c r="J10" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="K10" s="38" t="s">
+      <c r="K10" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="L10" s="38" t="s">
+      <c r="L10" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="M10" s="38"/>
-      <c r="N10" s="38"/>
-      <c r="O10" s="38" t="s">
+      <c r="M10" s="35"/>
+      <c r="N10" s="35"/>
+      <c r="O10" s="35" t="s">
         <v>198</v>
       </c>
       <c r="P10" s="17" t="s">
@@ -1866,24 +1869,24 @@
         <v>173</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="34" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="29" t="s">
+    <row r="11" spans="1:21" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="27" t="s">
         <v>107</v>
       </c>
-      <c r="D11" s="30" t="s">
+      <c r="D11" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="E11" s="31" t="s">
+      <c r="E11" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="F11" s="31"/>
-      <c r="G11" s="32" t="s">
+      <c r="F11" s="28"/>
+      <c r="G11" s="29" t="s">
         <v>186</v>
       </c>
       <c r="H11" s="7">
@@ -1892,18 +1895,18 @@
       <c r="I11" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="J11" s="32" t="s">
+      <c r="J11" s="29" t="s">
         <v>155</v>
       </c>
-      <c r="K11" s="38" t="s">
+      <c r="K11" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="L11" s="38" t="s">
+      <c r="L11" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="M11" s="38"/>
-      <c r="N11" s="38"/>
-      <c r="O11" s="38" t="s">
+      <c r="M11" s="35"/>
+      <c r="N11" s="35"/>
+      <c r="O11" s="35" t="s">
         <v>198</v>
       </c>
       <c r="P11" s="17" t="s">
@@ -1925,22 +1928,22 @@
         <v>169</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="34" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="29" t="s">
+    <row r="12" spans="1:21" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="C12" s="30" t="s">
+      <c r="C12" s="27" t="s">
         <v>107</v>
       </c>
-      <c r="D12" s="30" t="s">
+      <c r="D12" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="32" t="s">
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="29" t="s">
         <v>126</v>
       </c>
       <c r="H12" s="8">
@@ -1949,18 +1952,18 @@
       <c r="I12" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="J12" s="32" t="s">
+      <c r="J12" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="K12" s="38" t="s">
+      <c r="K12" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="L12" s="38" t="s">
+      <c r="L12" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="M12" s="38"/>
-      <c r="N12" s="38"/>
-      <c r="O12" s="38" t="s">
+      <c r="M12" s="35"/>
+      <c r="N12" s="35"/>
+      <c r="O12" s="35" t="s">
         <v>198</v>
       </c>
       <c r="P12" s="17" t="s">
@@ -1982,26 +1985,26 @@
         <v>171</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="45" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="29" t="s">
+    <row r="13" spans="1:21" s="42" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="C13" s="30" t="s">
+      <c r="C13" s="27" t="s">
         <v>107</v>
       </c>
-      <c r="D13" s="30" t="s">
+      <c r="D13" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="E13" s="31" t="s">
+      <c r="E13" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="F13" s="31" t="s">
+      <c r="F13" s="28" t="s">
         <v>130</v>
       </c>
-      <c r="G13" s="32" t="s">
+      <c r="G13" s="29" t="s">
         <v>131</v>
       </c>
       <c r="H13" s="7">
@@ -2010,18 +2013,18 @@
       <c r="I13" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="J13" s="32" t="s">
+      <c r="J13" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="K13" s="38" t="s">
+      <c r="K13" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="L13" s="38" t="s">
+      <c r="L13" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="M13" s="38"/>
-      <c r="N13" s="38"/>
-      <c r="O13" s="38" t="s">
+      <c r="M13" s="35"/>
+      <c r="N13" s="35"/>
+      <c r="O13" s="35" t="s">
         <v>196</v>
       </c>
       <c r="P13" s="17" t="s">
@@ -2043,26 +2046,26 @@
         <v>169</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A14" s="24" t="s">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="C14" s="25" t="s">
+      <c r="C14" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="D14" s="25" t="s">
+      <c r="D14" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="E14" s="26" t="s">
+      <c r="E14" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="F14" s="26" t="s">
+      <c r="F14" s="23" t="s">
         <v>130</v>
       </c>
-      <c r="G14" s="27" t="s">
+      <c r="G14" s="24" t="s">
         <v>133</v>
       </c>
       <c r="H14" s="8">
@@ -2071,18 +2074,18 @@
       <c r="I14" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="J14" s="46" t="s">
+      <c r="J14" s="43" t="s">
         <v>134</v>
       </c>
-      <c r="K14" s="36" t="s">
+      <c r="K14" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="L14" s="36" t="s">
+      <c r="L14" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="M14" s="36"/>
-      <c r="N14" s="36"/>
-      <c r="O14" s="36" t="s">
+      <c r="M14" s="33"/>
+      <c r="N14" s="33"/>
+      <c r="O14" s="33" t="s">
         <v>202</v>
       </c>
       <c r="P14" s="15" t="s">
@@ -2104,26 +2107,26 @@
         <v>171</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A15" s="24" t="s">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="C15" s="25" t="s">
+      <c r="C15" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="D15" s="30" t="s">
+      <c r="D15" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="E15" s="31" t="s">
+      <c r="E15" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="F15" s="31" t="s">
+      <c r="F15" s="28" t="s">
         <v>135</v>
       </c>
-      <c r="G15" s="32" t="s">
+      <c r="G15" s="29" t="s">
         <v>136</v>
       </c>
       <c r="H15" s="7">
@@ -2132,18 +2135,18 @@
       <c r="I15" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="J15" s="32" t="s">
+      <c r="J15" s="29" t="s">
         <v>137</v>
       </c>
-      <c r="K15" s="38" t="s">
+      <c r="K15" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="L15" s="38" t="s">
+      <c r="L15" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="M15" s="36"/>
-      <c r="N15" s="36"/>
-      <c r="O15" s="38" t="s">
+      <c r="M15" s="33"/>
+      <c r="N15" s="33"/>
+      <c r="O15" s="35" t="s">
         <v>196</v>
       </c>
       <c r="P15" s="15" t="s">
@@ -2165,26 +2168,26 @@
         <v>171</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A16" s="24" t="s">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="C16" s="25" t="s">
+      <c r="C16" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="D16" s="30" t="s">
+      <c r="D16" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="E16" s="31" t="s">
+      <c r="E16" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="F16" s="31" t="s">
+      <c r="F16" s="28" t="s">
         <v>135</v>
       </c>
-      <c r="G16" s="32" t="s">
+      <c r="G16" s="29" t="s">
         <v>138</v>
       </c>
       <c r="H16" s="8">
@@ -2193,18 +2196,18 @@
       <c r="I16" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="J16" s="32" t="s">
+      <c r="J16" s="29" t="s">
         <v>139</v>
       </c>
-      <c r="K16" s="38" t="s">
+      <c r="K16" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="L16" s="38" t="s">
+      <c r="L16" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="M16" s="36"/>
-      <c r="N16" s="36"/>
-      <c r="O16" s="38" t="s">
+      <c r="M16" s="33"/>
+      <c r="N16" s="33"/>
+      <c r="O16" s="35" t="s">
         <v>198</v>
       </c>
       <c r="P16" s="15" t="s">
@@ -2226,26 +2229,26 @@
         <v>169</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A17" s="24" t="s">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A17" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="B17" s="25" t="s">
+      <c r="B17" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="C17" s="25" t="s">
+      <c r="C17" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="D17" s="30" t="s">
+      <c r="D17" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="E17" s="31" t="s">
+      <c r="E17" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="F17" s="31" t="s">
+      <c r="F17" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="G17" s="32" t="s">
+      <c r="G17" s="29" t="s">
         <v>140</v>
       </c>
       <c r="H17" s="7">
@@ -2254,18 +2257,18 @@
       <c r="I17" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="J17" s="32" t="s">
+      <c r="J17" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="K17" s="38" t="s">
+      <c r="K17" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="L17" s="38" t="s">
+      <c r="L17" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="M17" s="36"/>
-      <c r="N17" s="36"/>
-      <c r="O17" s="38" t="s">
+      <c r="M17" s="33"/>
+      <c r="N17" s="33"/>
+      <c r="O17" s="35" t="s">
         <v>196</v>
       </c>
       <c r="P17" s="15" t="s">
@@ -2287,26 +2290,26 @@
         <v>176</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A18" s="24" t="s">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A18" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="B18" s="25" t="s">
+      <c r="B18" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="C18" s="25" t="s">
+      <c r="C18" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="D18" s="30" t="s">
+      <c r="D18" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="E18" s="31" t="s">
+      <c r="E18" s="28" t="s">
         <v>141</v>
       </c>
-      <c r="F18" s="31" t="s">
+      <c r="F18" s="28" t="s">
         <v>142</v>
       </c>
-      <c r="G18" s="47" t="s">
+      <c r="G18" s="44" t="s">
         <v>143</v>
       </c>
       <c r="H18" s="8">
@@ -2315,18 +2318,18 @@
       <c r="I18" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="J18" s="32" t="s">
+      <c r="J18" s="29" t="s">
         <v>144</v>
       </c>
-      <c r="K18" s="38" t="s">
+      <c r="K18" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="L18" s="38" t="s">
+      <c r="L18" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="M18" s="36"/>
-      <c r="N18" s="36"/>
-      <c r="O18" s="38" t="s">
+      <c r="M18" s="33"/>
+      <c r="N18" s="33"/>
+      <c r="O18" s="35" t="s">
         <v>196</v>
       </c>
       <c r="P18" s="15" t="s">
@@ -2348,26 +2351,26 @@
         <v>169</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="45" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="24" t="s">
+    <row r="19" spans="1:21" s="42" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="B19" s="25" t="s">
+      <c r="B19" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="C19" s="25" t="s">
+      <c r="C19" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="D19" s="30" t="s">
+      <c r="D19" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="E19" s="31" t="s">
+      <c r="E19" s="28" t="s">
         <v>141</v>
       </c>
-      <c r="F19" s="31" t="s">
+      <c r="F19" s="28" t="s">
         <v>145</v>
       </c>
-      <c r="G19" s="32" t="s">
+      <c r="G19" s="29" t="s">
         <v>148</v>
       </c>
       <c r="H19" s="7">
@@ -2376,18 +2379,18 @@
       <c r="I19" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="J19" s="32" t="s">
+      <c r="J19" s="29" t="s">
         <v>149</v>
       </c>
-      <c r="K19" s="38" t="s">
+      <c r="K19" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="L19" s="38" t="s">
+      <c r="L19" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="M19" s="36"/>
-      <c r="N19" s="36"/>
-      <c r="O19" s="38" t="s">
+      <c r="M19" s="33"/>
+      <c r="N19" s="33"/>
+      <c r="O19" s="35" t="s">
         <v>198</v>
       </c>
       <c r="P19" s="15" t="s">
@@ -2409,26 +2412,26 @@
         <v>169</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A20" s="24" t="s">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A20" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="B20" s="25" t="s">
+      <c r="B20" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="C20" s="25" t="s">
+      <c r="C20" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="D20" s="30" t="s">
+      <c r="D20" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="E20" s="31" t="s">
+      <c r="E20" s="28" t="s">
         <v>141</v>
       </c>
-      <c r="F20" s="31" t="s">
+      <c r="F20" s="28" t="s">
         <v>145</v>
       </c>
-      <c r="G20" s="47" t="s">
+      <c r="G20" s="44" t="s">
         <v>146</v>
       </c>
       <c r="H20" s="8">
@@ -2437,18 +2440,18 @@
       <c r="I20" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="J20" s="32" t="s">
+      <c r="J20" s="29" t="s">
         <v>147</v>
       </c>
-      <c r="K20" s="38" t="s">
+      <c r="K20" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="L20" s="38" t="s">
+      <c r="L20" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="M20" s="36"/>
-      <c r="N20" s="36"/>
-      <c r="O20" s="38" t="s">
+      <c r="M20" s="33"/>
+      <c r="N20" s="33"/>
+      <c r="O20" s="35" t="s">
         <v>198</v>
       </c>
       <c r="P20" s="15" t="s">
@@ -2470,24 +2473,24 @@
         <v>169</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A21" s="24" t="s">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A21" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="B21" s="25" t="s">
+      <c r="B21" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="C21" s="25" t="s">
+      <c r="C21" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="D21" s="30" t="s">
+      <c r="D21" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="E21" s="31" t="s">
+      <c r="E21" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="F21" s="31"/>
-      <c r="G21" s="32" t="s">
+      <c r="F21" s="28"/>
+      <c r="G21" s="29" t="s">
         <v>152</v>
       </c>
       <c r="H21" s="7">
@@ -2496,18 +2499,18 @@
       <c r="I21" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="J21" s="32" t="s">
+      <c r="J21" s="29" t="s">
         <v>153</v>
       </c>
-      <c r="K21" s="38" t="s">
+      <c r="K21" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="L21" s="38" t="s">
+      <c r="L21" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="M21" s="36"/>
-      <c r="N21" s="36"/>
-      <c r="O21" s="38" t="s">
+      <c r="M21" s="33"/>
+      <c r="N21" s="33"/>
+      <c r="O21" s="35" t="s">
         <v>196</v>
       </c>
       <c r="P21" s="15" t="s">
@@ -2529,24 +2532,24 @@
         <v>169</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A22" s="24" t="s">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A22" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="B22" s="25" t="s">
+      <c r="B22" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="C22" s="25" t="s">
+      <c r="C22" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="D22" s="30" t="s">
+      <c r="D22" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="E22" s="31" t="s">
+      <c r="E22" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="F22" s="31"/>
-      <c r="G22" s="32" t="s">
+      <c r="F22" s="28"/>
+      <c r="G22" s="29" t="s">
         <v>189</v>
       </c>
       <c r="H22" s="8">
@@ -2555,18 +2558,18 @@
       <c r="I22" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="J22" s="32" t="s">
+      <c r="J22" s="29" t="s">
         <v>157</v>
       </c>
-      <c r="K22" s="38" t="s">
+      <c r="K22" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="L22" s="38" t="s">
+      <c r="L22" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="M22" s="36"/>
-      <c r="N22" s="36"/>
-      <c r="O22" s="38" t="s">
+      <c r="M22" s="33"/>
+      <c r="N22" s="33"/>
+      <c r="O22" s="35" t="s">
         <v>198</v>
       </c>
       <c r="P22" s="15" t="s">
@@ -2588,24 +2591,24 @@
         <v>169</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A23" s="24" t="s">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A23" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="B23" s="25" t="s">
+      <c r="B23" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="C23" s="25" t="s">
+      <c r="C23" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="D23" s="30" t="s">
+      <c r="D23" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="E23" s="31" t="s">
+      <c r="E23" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="F23" s="31"/>
-      <c r="G23" s="32" t="s">
+      <c r="F23" s="28"/>
+      <c r="G23" s="29" t="s">
         <v>151</v>
       </c>
       <c r="H23" s="7">
@@ -2614,18 +2617,18 @@
       <c r="I23" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="J23" s="32" t="s">
+      <c r="J23" s="29" t="s">
         <v>150</v>
       </c>
-      <c r="K23" s="38" t="s">
+      <c r="K23" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="L23" s="38" t="s">
+      <c r="L23" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="M23" s="36"/>
-      <c r="N23" s="36"/>
-      <c r="O23" s="38" t="s">
+      <c r="M23" s="33"/>
+      <c r="N23" s="33"/>
+      <c r="O23" s="35" t="s">
         <v>204</v>
       </c>
       <c r="P23" s="15" t="s">
@@ -2647,22 +2650,22 @@
         <v>169</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A24" s="24" t="s">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A24" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="B24" s="25" t="s">
+      <c r="B24" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="C24" s="25" t="s">
+      <c r="C24" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="D24" s="30" t="s">
+      <c r="D24" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="32" t="s">
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="29" t="s">
         <v>154</v>
       </c>
       <c r="H24" s="8">
@@ -2671,18 +2674,18 @@
       <c r="I24" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="J24" s="32" t="s">
+      <c r="J24" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="K24" s="38" t="s">
+      <c r="K24" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="L24" s="38" t="s">
+      <c r="L24" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="M24" s="36"/>
-      <c r="N24" s="36"/>
-      <c r="O24" s="38" t="s">
+      <c r="M24" s="33"/>
+      <c r="N24" s="33"/>
+      <c r="O24" s="35" t="s">
         <v>206</v>
       </c>
       <c r="P24" s="15" t="s">
@@ -2704,22 +2707,22 @@
         <v>169</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A25" s="24" t="s">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A25" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="B25" s="25" t="s">
+      <c r="B25" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="C25" s="25" t="s">
+      <c r="C25" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="D25" s="30" t="s">
+      <c r="D25" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="32" t="s">
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="29" t="s">
         <v>158</v>
       </c>
       <c r="H25" s="7">
@@ -2728,18 +2731,18 @@
       <c r="I25" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="J25" s="32" t="s">
+      <c r="J25" s="29" t="s">
         <v>159</v>
       </c>
-      <c r="K25" s="38" t="s">
+      <c r="K25" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="L25" s="38" t="s">
+      <c r="L25" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="M25" s="36"/>
-      <c r="N25" s="36"/>
-      <c r="O25" s="38" t="s">
+      <c r="M25" s="33"/>
+      <c r="N25" s="33"/>
+      <c r="O25" s="35" t="s">
         <v>207</v>
       </c>
       <c r="P25" s="15" t="s">
@@ -2761,22 +2764,22 @@
         <v>169</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A26" s="24" t="s">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A26" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="B26" s="25" t="s">
+      <c r="B26" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="C26" s="25" t="s">
+      <c r="C26" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="D26" s="30" t="s">
+      <c r="D26" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="E26" s="31"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="32" t="s">
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="29" t="s">
         <v>160</v>
       </c>
       <c r="H26" s="8">
@@ -2785,18 +2788,18 @@
       <c r="I26" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="J26" s="32" t="s">
+      <c r="J26" s="29" t="s">
         <v>161</v>
       </c>
-      <c r="K26" s="38" t="s">
+      <c r="K26" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="L26" s="38" t="s">
+      <c r="L26" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="M26" s="36"/>
-      <c r="N26" s="36"/>
-      <c r="O26" s="38" t="s">
+      <c r="M26" s="33"/>
+      <c r="N26" s="33"/>
+      <c r="O26" s="35" t="s">
         <v>208</v>
       </c>
       <c r="P26" s="15" t="s">
@@ -2818,22 +2821,22 @@
         <v>169</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A27" s="24" t="s">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A27" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="B27" s="25" t="s">
+      <c r="B27" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="C27" s="25" t="s">
+      <c r="C27" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="D27" s="30" t="s">
+      <c r="D27" s="27" t="s">
         <v>191</v>
       </c>
-      <c r="E27" s="31"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="32" t="s">
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="29" t="s">
         <v>162</v>
       </c>
       <c r="H27" s="7">
@@ -2842,18 +2845,18 @@
       <c r="I27" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="J27" s="32" t="s">
+      <c r="J27" s="29" t="s">
         <v>194</v>
       </c>
-      <c r="K27" s="38" t="s">
+      <c r="K27" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="L27" s="38" t="s">
+      <c r="L27" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="M27" s="36"/>
-      <c r="N27" s="36"/>
-      <c r="O27" s="38"/>
+      <c r="M27" s="33"/>
+      <c r="N27" s="33"/>
+      <c r="O27" s="35"/>
       <c r="P27" s="15" t="s">
         <v>19</v>
       </c>
@@ -2863,22 +2866,22 @@
       <c r="T27" s="14"/>
       <c r="U27" s="14"/>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A28" s="29" t="s">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A28" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="B28" s="25" t="s">
+      <c r="B28" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="C28" s="25" t="s">
+      <c r="C28" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="D28" s="30" t="s">
+      <c r="D28" s="27" t="s">
         <v>191</v>
       </c>
-      <c r="E28" s="31"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="32" t="s">
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="29" t="s">
         <v>163</v>
       </c>
       <c r="H28" s="8">
@@ -2887,20 +2890,20 @@
       <c r="I28" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="J28" s="32" t="s">
+      <c r="J28" s="29" t="s">
         <v>193</v>
       </c>
-      <c r="K28" s="38" t="s">
+      <c r="K28" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="L28" s="38" t="s">
+      <c r="L28" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="M28" s="36"/>
-      <c r="N28" s="36" t="s">
+      <c r="M28" s="33"/>
+      <c r="N28" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="O28" s="38" t="s">
+      <c r="O28" s="35" t="s">
         <v>205</v>
       </c>
       <c r="P28" s="15" t="s">
@@ -2922,22 +2925,22 @@
         <v>98</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A29" s="29" t="s">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A29" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="B29" s="25" t="s">
+      <c r="B29" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="C29" s="25" t="s">
+      <c r="C29" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="D29" s="30" t="s">
+      <c r="D29" s="27" t="s">
         <v>191</v>
       </c>
-      <c r="E29" s="31"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="32" t="s">
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="29" t="s">
         <v>192</v>
       </c>
       <c r="H29" s="7">
@@ -2946,20 +2949,20 @@
       <c r="I29" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="J29" s="32" t="s">
+      <c r="J29" s="29" t="s">
         <v>195</v>
       </c>
-      <c r="K29" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="L29" s="38" t="s">
+      <c r="K29" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="L29" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="M29" s="36"/>
-      <c r="N29" s="36" t="s">
+      <c r="M29" s="33"/>
+      <c r="N29" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="O29" s="38"/>
+      <c r="O29" s="35"/>
       <c r="P29" s="15" t="s">
         <v>20</v>
       </c>
@@ -2970,12 +2973,10 @@
       <c r="U29" s="14"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:U29">
+    <filterColumn colId="12" showButton="0"/>
+  </autoFilter>
   <mergeCells count="20">
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A1:A2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="M1:N1"/>
@@ -2991,6 +2992,11 @@
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A1:A2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3047,16 +3053,16 @@
       <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="14.59765625" customWidth="1"/>
-    <col min="4" max="4" width="13.86328125" customWidth="1"/>
-    <col min="5" max="5" width="15.1328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.59765625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>25</v>
       </c>
@@ -3079,7 +3085,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="5" t="s">
         <v>34</v>
@@ -3100,7 +3106,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="5" t="s">
         <v>35</v>
@@ -3121,7 +3127,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="5" t="s">
         <v>36</v>
@@ -3138,7 +3144,7 @@
       </c>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="5" t="s">
         <v>37</v>
@@ -3155,7 +3161,7 @@
       </c>
       <c r="G5" s="4"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="B6" s="5" t="s">
         <v>38</v>
@@ -3170,7 +3176,7 @@
       </c>
       <c r="G6" s="4"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="5" t="s">
         <v>39</v>
@@ -3183,7 +3189,7 @@
       <c r="F7" s="5"/>
       <c r="G7" s="4"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="5" t="s">
         <v>40</v>
@@ -3196,7 +3202,7 @@
       <c r="F8" s="5"/>
       <c r="G8" s="4"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="5" t="s">
         <v>41</v>
@@ -3209,7 +3215,7 @@
       <c r="F9" s="5"/>
       <c r="G9" s="4"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="5" t="s">
         <v>42</v>
@@ -3222,7 +3228,7 @@
       <c r="F10" s="5"/>
       <c r="G10" s="4"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="5" t="s">
         <v>43</v>
@@ -3237,7 +3243,7 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="5" t="s">
         <v>44</v>
@@ -3252,7 +3258,7 @@
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="5" t="s">
         <v>45</v>
@@ -3267,7 +3273,7 @@
       <c r="M13" s="1"/>
       <c r="N13" s="3"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="5" t="s">
         <v>46</v>
@@ -3282,7 +3288,7 @@
       <c r="M14" s="1"/>
       <c r="N14" s="3"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5" t="s">
@@ -3295,7 +3301,7 @@
       <c r="M15" s="1"/>
       <c r="N15" s="3"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5" t="s">
@@ -3308,7 +3314,7 @@
       <c r="M16" s="1"/>
       <c r="N16" s="3"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5" t="s">
@@ -3321,7 +3327,7 @@
       <c r="M17" s="1"/>
       <c r="N17" s="3"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5" t="s">
@@ -3334,7 +3340,7 @@
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5" t="s">
@@ -3347,7 +3353,7 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5" t="s">
@@ -3360,7 +3366,7 @@
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5" t="s">
@@ -3373,7 +3379,7 @@
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5" t="s">
@@ -3386,7 +3392,7 @@
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5" t="s">
@@ -3399,7 +3405,7 @@
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5" t="s">
@@ -3412,7 +3418,7 @@
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5" t="s">
@@ -3423,7 +3429,7 @@
       <c r="F25" s="5"/>
       <c r="G25" s="4"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5" t="s">
@@ -3434,7 +3440,7 @@
       <c r="F26" s="5"/>
       <c r="G26" s="4"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5" t="s">
@@ -3445,7 +3451,7 @@
       <c r="F27" s="5"/>
       <c r="G27" s="4"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5" t="s">
@@ -3456,7 +3462,7 @@
       <c r="F28" s="5"/>
       <c r="G28" s="4"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5" t="s">
@@ -3467,7 +3473,7 @@
       <c r="F29" s="5"/>
       <c r="G29" s="4"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5" t="s">
@@ -3478,7 +3484,7 @@
       <c r="F30" s="5"/>
       <c r="G30" s="4"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5" t="s">
@@ -3489,7 +3495,7 @@
       <c r="F31" s="5"/>
       <c r="G31" s="4"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5" t="s">
@@ -3500,7 +3506,7 @@
       <c r="F32" s="5"/>
       <c r="G32" s="4"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="5"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5" t="s">
@@ -3511,7 +3517,7 @@
       <c r="F33" s="5"/>
       <c r="G33" s="4"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5" t="s">
@@ -3522,7 +3528,7 @@
       <c r="F34" s="5"/>
       <c r="G34" s="4"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5" t="s">
@@ -3533,7 +3539,7 @@
       <c r="F35" s="5"/>
       <c r="G35" s="4"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5" t="s">
@@ -3544,7 +3550,7 @@
       <c r="F36" s="5"/>
       <c r="G36" s="4"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="5" t="s">
@@ -3555,7 +3561,7 @@
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4" t="s">
@@ -3566,7 +3572,7 @@
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4" t="s">
@@ -3577,7 +3583,7 @@
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -3586,7 +3592,7 @@
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -3595,7 +3601,7 @@
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -3604,7 +3610,7 @@
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -3613,7 +3619,7 @@
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -3622,7 +3628,7 @@
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -3631,7 +3637,7 @@
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
@@ -3640,7 +3646,7 @@
       <c r="F46" s="4"/>
       <c r="G46" s="4"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -3649,7 +3655,7 @@
       <c r="F47" s="4"/>
       <c r="G47" s="4"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
@@ -3658,7 +3664,7 @@
       <c r="F48" s="4"/>
       <c r="G48" s="4"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
@@ -3667,7 +3673,7 @@
       <c r="F49" s="4"/>
       <c r="G49" s="4"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
@@ -3691,7 +3697,7 @@
       <selection activeCell="A4" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
